--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\RouterTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nova\Legends-Of-Heroes\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC470956-B4CB-4A69-8FC6-28509B4A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83538405-C36D-44F9-BFA9-D362D11990E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="3705" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -78,11 +78,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -103,7 +103,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,21 +470,21 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
     <col min="4" max="6" width="21" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6">
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6" s="1" customFormat="1">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6">
       <c r="C8" s="3">
         <v>3</v>
       </c>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nova\Legends-Of-Heroes\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\RouterTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83538405-C36D-44F9-BFA9-D362D11990E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC470956-B4CB-4A69-8FC6-28509B4A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="3705" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -78,11 +78,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -103,7 +103,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,21 +470,21 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="4" max="6" width="21" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1">
+    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -540,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
